--- a/results/cifar10_training/results_lwf_cifar10.xlsx
+++ b/results/cifar10_training/results_lwf_cifar10.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.330083871760019</v>
+        <v>1.247403295544105</v>
       </c>
       <c r="D3">
-        <v>1.121618946393331</v>
+        <v>0.9885677695274353</v>
       </c>
       <c r="E3">
-        <v>27.75</v>
+        <v>30.1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.088935614013672</v>
+        <v>1.020219235229492</v>
       </c>
       <c r="J3">
-        <v>55.5</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9484040732306194</v>
+        <v>0.9041064866190034</v>
       </c>
       <c r="D4">
-        <v>0.8155389030774435</v>
+        <v>0.8730901479721069</v>
       </c>
       <c r="E4">
-        <v>33.29999923706055</v>
+        <v>32.89</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>11.33352006835938</v>
+        <v>11.5261837890625</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8370155110591795</v>
+        <v>0.7956999273804145</v>
       </c>
       <c r="D5">
-        <v>0.7417876521746317</v>
+        <v>0.7560144662857056</v>
       </c>
       <c r="E5">
-        <v>34.61999893188477</v>
+        <v>34.09</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.8404603271484375</v>
+        <v>0.8515022155761719</v>
       </c>
       <c r="J5">
-        <v>66.59999847412109</v>
+        <v>65.78</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7390300137240712</v>
+        <v>0.7037618087559212</v>
       </c>
       <c r="D6">
-        <v>0.6865269144376119</v>
+        <v>0.6120863556861877</v>
       </c>
       <c r="E6">
-        <v>36.70000076293945</v>
+        <v>36.96</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>14.50190986328125</v>
+        <v>13.54516948242187</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6609299803167824</v>
+        <v>0.6399813471286278</v>
       </c>
       <c r="D7">
-        <v>0.6266541481018066</v>
+        <v>0.6483461856842041</v>
       </c>
       <c r="E7">
-        <v>37.30999755859375</v>
+        <v>37.26</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.7737115783691406</v>
+        <v>0.7795755310058594</v>
       </c>
       <c r="J7">
-        <v>69.23999786376953</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5993846710619888</v>
+        <v>0.5820031313876796</v>
       </c>
       <c r="D8">
-        <v>0.5844786365826925</v>
+        <v>0.572671115398407</v>
       </c>
       <c r="E8">
-        <v>38.34000015258789</v>
+        <v>38.79</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>13.59498530273438</v>
+        <v>13.90980947265625</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5399573551930064</v>
+        <v>0.5307437842938958</v>
       </c>
       <c r="D9">
-        <v>0.5477129220962524</v>
+        <v>0.5419635772705078</v>
       </c>
       <c r="E9">
-        <v>39.05999755859375</v>
+        <v>39.19</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.702640805053711</v>
+        <v>0.6774962112426758</v>
       </c>
       <c r="J9">
-        <v>73.40000152587891</v>
+        <v>73.92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5065669918932566</v>
+        <v>0.492600629969341</v>
       </c>
       <c r="D10">
-        <v>0.5483478506406149</v>
+        <v>0.5361366271972656</v>
       </c>
       <c r="E10">
-        <v>39.57999801635742</v>
+        <v>39.35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>13.6468048828125</v>
+        <v>13.049782421875</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.449893497354616</v>
+        <v>0.4538408420919403</v>
       </c>
       <c r="D11">
-        <v>0.5634080767631531</v>
+        <v>0.5196357369422913</v>
       </c>
       <c r="E11">
-        <v>39.36000061035156</v>
+        <v>39.67</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.6669605895996094</v>
+        <v>0.661510791015625</v>
       </c>
       <c r="J11">
-        <v>74.6199951171875</v>
+        <v>74.52</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4218765383328849</v>
+        <v>0.412521371511909</v>
       </c>
       <c r="D12">
-        <v>0.4892550706863403</v>
+        <v>0.5785846710205078</v>
       </c>
       <c r="E12">
-        <v>40.0099983215332</v>
+        <v>39.38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>16.06810185546875</v>
+        <v>13.0593087890625</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3829557595214224</v>
+        <v>0.3770686270502525</v>
       </c>
       <c r="D13">
-        <v>0.5306399365266165</v>
+        <v>0.5562283396720886</v>
       </c>
       <c r="E13">
-        <v>39.61999893188477</v>
+        <v>40.1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.6066619491577149</v>
+        <v>0.5894577301025391</v>
       </c>
       <c r="J13">
-        <v>76.68000030517578</v>
+        <v>77.58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.347699379533287</v>
+        <v>0.3454724831309745</v>
       </c>
       <c r="D14">
-        <v>0.5152543584505717</v>
+        <v>0.5154654383659363</v>
       </c>
       <c r="E14">
-        <v>39.63999938964844</v>
+        <v>40.45</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>14.37040034179688</v>
+        <v>13.72880048828125</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3048261892262513</v>
+        <v>0.3182996890651501</v>
       </c>
       <c r="D15">
-        <v>0.5518752733866373</v>
+        <v>0.4748371839523315</v>
       </c>
       <c r="E15">
-        <v>40.30999755859375</v>
+        <v>40.69</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.5851957305908203</v>
+        <v>0.5843293701171876</v>
       </c>
       <c r="J15">
-        <v>78.1199951171875</v>
+        <v>78.38</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2743229810299912</v>
+        <v>0.2817701826977536</v>
       </c>
       <c r="D16">
-        <v>0.5691882769266764</v>
+        <v>0.5523800849914551</v>
       </c>
       <c r="E16">
-        <v>40.23999786376953</v>
+        <v>40.2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>15.75965327148437</v>
+        <v>13.9789443359375</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.2362801017073112</v>
+        <v>0.2455616948323521</v>
       </c>
       <c r="D17">
-        <v>0.5030120213826498</v>
+        <v>0.5958680510520935</v>
       </c>
       <c r="E17">
-        <v>40.15999984741211</v>
+        <v>39.96</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.5562335739135742</v>
+        <v>0.5634855606079101</v>
       </c>
       <c r="J17">
-        <v>79.15999603271484</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3253457380261848</v>
+        <v>0.2246539156005634</v>
       </c>
       <c r="D18">
-        <v>0.4962384402751923</v>
+        <v>0.5258666276931763</v>
       </c>
       <c r="E18">
-        <v>40.53999710083008</v>
+        <v>40.68</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>15.92775952148438</v>
+        <v>14.09285263671875</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.308401610429694</v>
+        <v>0.1820711214246789</v>
       </c>
       <c r="D19">
-        <v>0.5023101766904196</v>
+        <v>0.6517896056175232</v>
       </c>
       <c r="E19">
-        <v>40.61999893188477</v>
+        <v>40.78</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.5686257186889648</v>
+        <v>0.5502329879760742</v>
       </c>
       <c r="J19">
-        <v>78.72000122070312</v>
+        <v>79.34</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.2922524451240291</v>
+        <v>0.1468172494352349</v>
       </c>
       <c r="D20">
-        <v>0.5112834274768829</v>
+        <v>0.5733640193939209</v>
       </c>
       <c r="E20">
-        <v>40.77000045776367</v>
+        <v>40.62</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>15.59356918945313</v>
+        <v>14.70587934570312</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.2814169110563712</v>
+        <v>0.2244913192783914</v>
       </c>
       <c r="D21">
-        <v>0.4878873030344645</v>
+        <v>0.4878254532814026</v>
       </c>
       <c r="E21">
-        <v>40.95999908447266</v>
+        <v>40.74</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.5484818389892578</v>
+        <v>0.5776366409301757</v>
       </c>
       <c r="J21">
-        <v>80.01999664306641</v>
+        <v>78.76000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.270644865384916</v>
+        <v>0.2086223749125876</v>
       </c>
       <c r="D22">
-        <v>0.5262517134348551</v>
+        <v>0.5031625628471375</v>
       </c>
       <c r="E22">
-        <v>40.71999740600586</v>
+        <v>40.78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>16.72989340820313</v>
+        <v>15.68317963867188</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.2633491338995414</v>
+        <v>0.1943033985127278</v>
       </c>
       <c r="D23">
-        <v>0.5059960981210073</v>
+        <v>0.4704620838165283</v>
       </c>
       <c r="E23">
-        <v>40.78999710083008</v>
+        <v>41.01</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.5727964950561524</v>
+        <v>0.5389378067016601</v>
       </c>
       <c r="J23">
-        <v>79.23999786376953</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.2483483809765761</v>
+        <v>0.1845638341293102</v>
       </c>
       <c r="D24">
-        <v>0.4966407716274261</v>
+        <v>0.4979199767112732</v>
       </c>
       <c r="E24">
-        <v>40.48999786376953</v>
+        <v>40.85</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>14.69181567382813</v>
+        <v>15.93528095703125</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.2388582557924395</v>
+        <v>0.1744728412448875</v>
       </c>
       <c r="D25">
-        <v>0.5365602771441141</v>
+        <v>0.4987863898277283</v>
       </c>
       <c r="E25">
-        <v>40.28999710083008</v>
+        <v>41.05</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.5629041213989258</v>
+        <v>0.5357963836669922</v>
       </c>
       <c r="J25">
-        <v>79.27999877929688</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.2286553608208168</v>
+        <v>0.1647219061245763</v>
       </c>
       <c r="D26">
-        <v>0.5051921705404917</v>
+        <v>0.4810458421707153</v>
       </c>
       <c r="E26">
-        <v>40.68000030517578</v>
+        <v>40.93</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>17.0793</v>
+        <v>15.61536420898437</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.2584818062501225</v>
+        <v>0.1540703982478235</v>
       </c>
       <c r="D27">
-        <v>0.5002102355162302</v>
+        <v>0.5305169224739075</v>
       </c>
       <c r="E27">
-        <v>40.90999984741211</v>
+        <v>40.72</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.5652985809326172</v>
+        <v>0.5233777526855469</v>
       </c>
       <c r="J27">
-        <v>80.6199951171875</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.2555989956225806</v>
+        <v>0.147315424208234</v>
       </c>
       <c r="D28">
-        <v>0.5114271342754364</v>
+        <v>0.4992647767066956</v>
       </c>
       <c r="E28">
-        <v>40.86999893188477</v>
+        <v>40.98</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>19.433240234375</v>
+        <v>16.81859018554687</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.2524499709044046</v>
+        <v>0.1749162658201001</v>
       </c>
       <c r="D29">
-        <v>0.477065771818161</v>
+        <v>0.5136982202529907</v>
       </c>
       <c r="E29">
-        <v>40.98999786376953</v>
+        <v>40.96</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.5600823547363282</v>
+        <v>0.5594300003051758</v>
       </c>
       <c r="J29">
-        <v>80.47999572753906</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.2490689336526685</v>
+        <v>0.1712396773623257</v>
       </c>
       <c r="D30">
-        <v>0.4615729451179504</v>
+        <v>0.467747688293457</v>
       </c>
       <c r="E30">
-        <v>40.95999908447266</v>
+        <v>41.19</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>17.07426401367188</v>
+        <v>17.02742338867187</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.2460433334354463</v>
+        <v>0.1682415207227071</v>
       </c>
       <c r="D31">
-        <v>0.5049793620904287</v>
+        <v>0.4682631194591522</v>
       </c>
       <c r="E31">
-        <v>40.77999877929688</v>
+        <v>41.19</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.5838027206420898</v>
+        <v>0.5870352600097656</v>
       </c>
       <c r="J31">
-        <v>80.31999969482422</v>
+        <v>79.92</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.2442660965328294</v>
+        <v>0.1656149308977088</v>
       </c>
       <c r="D32">
-        <v>0.530934472878774</v>
+        <v>0.4537325799465179</v>
       </c>
       <c r="E32">
-        <v>40.72999954223633</v>
+        <v>41.1</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>20.217745703125</v>
+        <v>17.873246484375</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.2413069530715787</v>
+        <v>0.1634538818786784</v>
       </c>
       <c r="D33">
-        <v>0.5194203654925028</v>
+        <v>0.4538403451442719</v>
       </c>
       <c r="E33">
-        <v>40.91999816894531</v>
+        <v>41.15</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.5213997772216797</v>
+        <v>0.5903015426635743</v>
       </c>
       <c r="J33">
-        <v>81.07999420166016</v>
+        <v>81.36</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.238631890072086</v>
+        <v>0.1612208176071082</v>
       </c>
       <c r="D34">
-        <v>0.4815352559089661</v>
+        <v>0.4647499024868011</v>
       </c>
       <c r="E34">
-        <v>40.81999969482422</v>
+        <v>41.05</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>18.95073930664062</v>
+        <v>17.96614560546875</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.2364381860669066</v>
+        <v>0.158045178688154</v>
       </c>
       <c r="D35">
-        <v>0.548001229763031</v>
+        <v>0.4831362962722778</v>
       </c>
       <c r="E35">
-        <v>40.93999862670898</v>
+        <v>41.03</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.5219653656005859</v>
+        <v>0.6040308334350586</v>
       </c>
       <c r="J35">
-        <v>81.23999786376953</v>
+        <v>81.56</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.2442804549525424</v>
+        <v>0.1558707301936499</v>
       </c>
       <c r="D36">
-        <v>0.5181771616141001</v>
+        <v>0.4684683680534363</v>
       </c>
       <c r="E36">
-        <v>40.88999938964844</v>
+        <v>41.1</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>19.0185181640625</v>
+        <v>20.02012309570312</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.2437482849369204</v>
+        <v>0.1530876451028072</v>
       </c>
       <c r="D37">
-        <v>0.5168276826540629</v>
+        <v>0.5258092880249023</v>
       </c>
       <c r="E37">
-        <v>40.88999938964844</v>
+        <v>40.93</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.5196739990234375</v>
+        <v>0.635765283203125</v>
       </c>
       <c r="J37">
-        <v>81.54000091552734</v>
+        <v>81.23999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.2432481422414625</v>
+        <v>0.1610677493054692</v>
       </c>
       <c r="D38">
-        <v>0.4861340125401815</v>
+        <v>0.4889109134674072</v>
       </c>
       <c r="E38">
-        <v>40.84999847412109</v>
+        <v>40.99</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>19.1744142578125</v>
+        <v>22.40137646484375</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.2420525298855169</v>
+        <v>0.160619359917757</v>
       </c>
       <c r="D39">
-        <v>0.5062929491202036</v>
+        <v>0.5358133912086487</v>
       </c>
       <c r="E39">
-        <v>40.88999938964844</v>
+        <v>41.05</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.5277902572631836</v>
+        <v>0.5264545440673828</v>
       </c>
       <c r="J39">
-        <v>81.91999816894531</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.2414643726940078</v>
+        <v>0.1595528381990223</v>
       </c>
       <c r="D40">
-        <v>0.4585526486237844</v>
+        <v>0.5192463397979736</v>
       </c>
       <c r="E40">
-        <v>40.86000061035156</v>
+        <v>41.11</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>19.93344580078125</v>
+        <v>19.82673471679687</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.2408566686922942</v>
+        <v>0.1594004499597278</v>
       </c>
       <c r="D41">
-        <v>0.5093587736288706</v>
+        <v>0.4637480974197388</v>
       </c>
       <c r="E41">
-        <v>40.80999755859375</v>
+        <v>41.15</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.5371161926269531</v>
+        <v>0.5295918807983399</v>
       </c>
       <c r="J41">
-        <v>81.43999481201172</v>
+        <v>81.56</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.2404519540023028</v>
+        <v>0.1586053772428171</v>
       </c>
       <c r="D42">
-        <v>0.5388052761554718</v>
+        <v>0.4842070937156677</v>
       </c>
       <c r="E42">
-        <v>40.77999877929688</v>
+        <v>41.12</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>20.74008452148437</v>
+        <v>19.84418168945313</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.239811724278985</v>
+        <v>0.1608735955343014</v>
       </c>
       <c r="D43">
-        <v>0.5407731533050537</v>
+        <v>0.4649052321910858</v>
       </c>
       <c r="E43">
-        <v>40.89999771118164</v>
+        <v>41.11</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.5457116912841797</v>
+        <v>0.5351633209228516</v>
       </c>
       <c r="J43">
-        <v>81.57999420166016</v>
+        <v>82.02</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.2393734960294351</v>
+        <v>0.160383192686046</v>
       </c>
       <c r="D44">
-        <v>0.4941613475481669</v>
+        <v>0.4763095378875732</v>
       </c>
       <c r="E44">
-        <v>40.78999710083008</v>
+        <v>41.14</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>19.7457505859375</v>
+        <v>20.59005712890625</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.2384771869434574</v>
+        <v>0.1603669949421068</v>
       </c>
       <c r="D45">
-        <v>0.4973676999409993</v>
+        <v>0.4553828239440918</v>
       </c>
       <c r="E45">
-        <v>40.95000076293945</v>
+        <v>41.12</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.5385056015014649</v>
+        <v>0.538300961303711</v>
       </c>
       <c r="J45">
-        <v>80.97999572753906</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.2400718058754758</v>
+        <v>0.1599010646464379</v>
       </c>
       <c r="D46">
-        <v>0.5274356404940287</v>
+        <v>0.5175881385803223</v>
       </c>
       <c r="E46">
-        <v>40.86000061035156</v>
+        <v>41.13</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>20.48338154296875</v>
+        <v>20.9212982421875</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.2400609618279992</v>
+        <v>0.1600765313922874</v>
       </c>
       <c r="D47">
-        <v>0.5206912755966187</v>
+        <v>0.4796343743801117</v>
       </c>
       <c r="E47">
-        <v>40.86000061035156</v>
+        <v>41.1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1755,28 +1755,13 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.5542092102050781</v>
+        <v>0.5632987930297851</v>
       </c>
       <c r="J47">
-        <v>80.57999420166016</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.2402711614845245</v>
-      </c>
-      <c r="D48">
-        <v>0.5259100596110026</v>
-      </c>
-      <c r="E48">
-        <v>40.84000015258789</v>
-      </c>
       <c r="G48">
         <v>1</v>
       </c>
@@ -1784,28 +1769,13 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>20.02145581054688</v>
+        <v>21.461073828125</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>0.2395559541457068</v>
-      </c>
-      <c r="D49">
-        <v>0.5131956338882446</v>
-      </c>
-      <c r="E49">
-        <v>40.82999801635742</v>
-      </c>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>0</v>
       </c>
@@ -1813,28 +1783,13 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.5479778518676758</v>
+        <v>0.5549640640258789</v>
       </c>
       <c r="J49">
-        <v>81.36000061035156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.2395713187572433</v>
-      </c>
-      <c r="D50">
-        <v>0.5318090120951334</v>
-      </c>
-      <c r="E50">
-        <v>40.84000015258789</v>
-      </c>
+        <v>81.86</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>1</v>
       </c>
@@ -1842,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>21.32234130859375</v>
+        <v>21.48775009765625</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>0</v>
       </c>
@@ -1856,13 +1811,13 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.5272673583984375</v>
+        <v>0.5803662124633789</v>
       </c>
       <c r="J51">
-        <v>81.81999969482422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>1</v>
       </c>
@@ -1870,13 +1825,13 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>20.34982622070313</v>
+        <v>22.219907421875</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>0</v>
       </c>
@@ -1884,13 +1839,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.5282309585571289</v>
+        <v>0.5704720489501953</v>
       </c>
       <c r="J53">
-        <v>81.73999786376953</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>81.95999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>1</v>
       </c>
@@ -1898,13 +1853,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>20.71314282226562</v>
+        <v>21.86623984375</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>0</v>
       </c>
@@ -1912,13 +1867,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.5317195022583008</v>
+        <v>0.5412446563720703</v>
       </c>
       <c r="J55">
-        <v>81.97999572753906</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>81.92</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>1</v>
       </c>
@@ -1926,13 +1881,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>21.04666474609375</v>
+        <v>21.3466802734375</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>0</v>
       </c>
@@ -1940,13 +1895,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.5287945877075195</v>
+        <v>0.5434243469238281</v>
       </c>
       <c r="J57">
-        <v>81.91999816894531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>82.38</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>1</v>
       </c>
@@ -1954,13 +1909,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>20.81356000976562</v>
+        <v>21.4522796875</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>0</v>
       </c>
@@ -1968,13 +1923,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.5304164978027344</v>
+        <v>0.5414636917114258</v>
       </c>
       <c r="J59">
-        <v>81.55999755859375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>82.38</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>1</v>
       </c>
@@ -1982,13 +1937,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>20.89344272460938</v>
+        <v>21.8089552734375</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>0</v>
       </c>
@@ -1996,13 +1951,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.5307776153564453</v>
+        <v>0.5447689224243164</v>
       </c>
       <c r="J61">
-        <v>81.45999908447266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>1</v>
       </c>
@@ -2010,13 +1965,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>20.90952602539063</v>
+        <v>21.79525419921875</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>0</v>
       </c>
@@ -2024,13 +1979,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.5331042541503906</v>
+        <v>0.5501915969848633</v>
       </c>
       <c r="J63">
-        <v>81.83999633789062</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>1</v>
       </c>
@@ -2038,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>21.23787958984375</v>
+        <v>21.9655455078125</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2052,10 +2007,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.5329481231689454</v>
+        <v>0.5489737243652344</v>
       </c>
       <c r="J65">
-        <v>81.63999938964844</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -2066,7 +2021,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>21.1123923828125</v>
+        <v>22.1270248046875</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2080,10 +2035,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.5360007308959961</v>
+        <v>0.5502471664428711</v>
       </c>
       <c r="J67">
-        <v>81.87999725341797</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2094,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>21.103421484375</v>
+        <v>21.94982373046875</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2108,10 +2063,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.5277523788452149</v>
+        <v>0.5550073547363281</v>
       </c>
       <c r="J69">
-        <v>81.77999877929688</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2122,7 +2077,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>20.74680727539063</v>
+        <v>22.285902734375</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2136,10 +2091,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.5283264907836914</v>
+        <v>0.557358283996582</v>
       </c>
       <c r="J71">
-        <v>81.77999877929688</v>
+        <v>81.86</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2150,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>20.88338291015625</v>
+        <v>22.363937890625</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2164,10 +2119,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.5288121231079101</v>
+        <v>0.5447886947631836</v>
       </c>
       <c r="J73">
-        <v>81.69999694824219</v>
+        <v>81.98</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2178,7 +2133,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>20.88883188476563</v>
+        <v>21.85822861328125</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2192,10 +2147,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.529933903503418</v>
+        <v>0.5455283111572266</v>
       </c>
       <c r="J75">
-        <v>81.77999877929688</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2206,7 +2161,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>20.929091796875</v>
+        <v>21.909926953125</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2220,10 +2175,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.5295554168701172</v>
+        <v>0.5464060272216796</v>
       </c>
       <c r="J77">
-        <v>81.72000122070312</v>
+        <v>82.22</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2234,7 +2189,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>20.93770747070312</v>
+        <v>21.99475048828125</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2248,10 +2203,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.530329249572754</v>
+        <v>0.5475663238525391</v>
       </c>
       <c r="J79">
-        <v>81.6199951171875</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2262,7 +2217,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>21.02670258789063</v>
+        <v>22.0679900390625</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2276,10 +2231,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.5298224426269531</v>
+        <v>0.5472572830200195</v>
       </c>
       <c r="J81">
-        <v>81.55999755859375</v>
+        <v>82.23999999999999</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -2290,7 +2245,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>21.01994633789063</v>
+        <v>22.048585546875</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2304,10 +2259,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.5308689514160156</v>
+        <v>0.5445966384887695</v>
       </c>
       <c r="J83">
-        <v>81.79999542236328</v>
+        <v>82.22</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -2318,7 +2273,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>21.03448002929688</v>
+        <v>21.83164560546875</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2332,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.5300787353515625</v>
+        <v>0.544838818359375</v>
       </c>
       <c r="J85">
-        <v>81.57999420166016</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -2346,7 +2301,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>20.98939047851562</v>
+        <v>21.863779296875</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2360,10 +2315,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.5324978408813477</v>
+        <v>0.544842822265625</v>
       </c>
       <c r="J87">
-        <v>81.90000152587891</v>
+        <v>82.23999999999999</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -2374,7 +2329,7 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>21.06606357421875</v>
+        <v>21.8779326171875</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2388,10 +2343,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.5297449462890625</v>
+        <v>0.545044580078125</v>
       </c>
       <c r="J89">
-        <v>81.72000122070312</v>
+        <v>82.26000000000001</v>
       </c>
     </row>
     <row r="90" spans="7:10">
@@ -2402,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>20.96754326171875</v>
+        <v>21.891548046875</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -2416,10 +2371,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.5295851043701172</v>
+        <v>0.545143913269043</v>
       </c>
       <c r="J91">
-        <v>81.72000122070312</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="92" spans="7:10">
@@ -2430,93 +2385,9 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>20.96113530273438</v>
+        <v>21.9034751953125</v>
       </c>
       <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="7:10">
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>46</v>
-      </c>
-      <c r="I93">
-        <v>0.5297366836547851</v>
-      </c>
-      <c r="J93">
-        <v>81.68000030517578</v>
-      </c>
-    </row>
-    <row r="94" spans="7:10">
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>46</v>
-      </c>
-      <c r="I94">
-        <v>20.97845795898438</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="7:10">
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>47</v>
-      </c>
-      <c r="I95">
-        <v>0.5295066711425781</v>
-      </c>
-      <c r="J95">
-        <v>81.65999603271484</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10">
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>47</v>
-      </c>
-      <c r="I96">
-        <v>20.967399609375</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>48</v>
-      </c>
-      <c r="I97">
-        <v>0.5296682113647461</v>
-      </c>
-      <c r="J97">
-        <v>81.68000030517578</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>48</v>
-      </c>
-      <c r="I98">
-        <v>20.97648549804687</v>
-      </c>
-      <c r="J98">
         <v>0</v>
       </c>
     </row>
@@ -2531,7 +2402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2590,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.430033674085043</v>
+        <v>3.405167275327977</v>
       </c>
       <c r="D3">
-        <v>2.561026652654012</v>
+        <v>2.439995527267456</v>
       </c>
       <c r="E3">
-        <v>44.98999786376953</v>
+        <v>47.65</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2605,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.547722448730469</v>
+        <v>1.36264167175293</v>
       </c>
       <c r="J3">
-        <v>45.5</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2619,13 +2490,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.35106600009329</v>
+        <v>2.31295009938682</v>
       </c>
       <c r="D4">
-        <v>2.232205390930176</v>
+        <v>2.236774444580078</v>
       </c>
       <c r="E4">
-        <v>53.68999862670898</v>
+        <v>54.11</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2634,10 +2505,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.403069262695313</v>
+        <v>1.367123223876953</v>
       </c>
       <c r="J4">
-        <v>44.47999954223633</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2648,13 +2519,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.134578667035917</v>
+        <v>2.113773156956928</v>
       </c>
       <c r="D5">
-        <v>2.110637187957764</v>
+        <v>2.143078565597534</v>
       </c>
       <c r="E5">
-        <v>55.14999771118164</v>
+        <v>57.52</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2663,10 +2534,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1.256853909301758</v>
+        <v>1.175345300292969</v>
       </c>
       <c r="J5">
-        <v>56.69999694824219</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2677,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.022458033833077</v>
+        <v>2.007910869955047</v>
       </c>
       <c r="D6">
-        <v>2.047611316045125</v>
+        <v>2.042085647583008</v>
       </c>
       <c r="E6">
-        <v>57.01999664306641</v>
+        <v>59.03</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2692,10 +2563,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1.236970361328125</v>
+        <v>1.254536837768555</v>
       </c>
       <c r="J6">
-        <v>50.68000030517578</v>
+        <v>44.66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2706,13 +2577,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.951646848422725</v>
+        <v>1.930144643395897</v>
       </c>
       <c r="D7">
-        <v>1.992692112922668</v>
+        <v>2.009490966796875</v>
       </c>
       <c r="E7">
-        <v>57.5</v>
+        <v>60.22</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2721,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>1.185392047119141</v>
+        <v>1.075998712158203</v>
       </c>
       <c r="J7">
-        <v>59.87999725341797</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2735,13 +2606,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.885778422278117</v>
+        <v>1.866710749098925</v>
       </c>
       <c r="D8">
-        <v>1.931144754091899</v>
+        <v>1.978195548057556</v>
       </c>
       <c r="E8">
-        <v>58.36000061035156</v>
+        <v>59.57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2750,10 +2621,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>1.179976895141602</v>
+        <v>1.194270028686524</v>
       </c>
       <c r="J8">
-        <v>50.41999816894531</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2764,13 +2635,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.829877974541207</v>
+        <v>1.818900645263796</v>
       </c>
       <c r="D9">
-        <v>1.953722874323527</v>
+        <v>1.954955101013184</v>
       </c>
       <c r="E9">
-        <v>56.57999801635742</v>
+        <v>59.29</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2779,10 +2650,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>1.165616299438477</v>
+        <v>1.034825936889648</v>
       </c>
       <c r="J9">
-        <v>60.07999801635742</v>
+        <v>66.81999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2793,13 +2664,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.786621168376954</v>
+        <v>1.778189655241927</v>
       </c>
       <c r="D10">
-        <v>1.892383257548014</v>
+        <v>1.958203196525574</v>
       </c>
       <c r="E10">
-        <v>57.12999725341797</v>
+        <v>56.42</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2808,10 +2679,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>1.136569281005859</v>
+        <v>1.14531123046875</v>
       </c>
       <c r="J10">
-        <v>53.95999908447266</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2822,13 +2693,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.74815368070835</v>
+        <v>1.737656382041249</v>
       </c>
       <c r="D11">
-        <v>1.869443933169047</v>
+        <v>1.928332686424255</v>
       </c>
       <c r="E11">
-        <v>57.43000030517578</v>
+        <v>58.48</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2837,10 +2708,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>1.116021731567383</v>
+        <v>1.051945370483399</v>
       </c>
       <c r="J11">
-        <v>62.68000030517578</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2851,13 +2722,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.708835515549513</v>
+        <v>1.701700441236419</v>
       </c>
       <c r="D12">
-        <v>1.871716817220052</v>
+        <v>1.907446384429932</v>
       </c>
       <c r="E12">
-        <v>57.59999847412109</v>
+        <v>59.57</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2866,10 +2737,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>1.143980419921875</v>
+        <v>1.091411981201172</v>
       </c>
       <c r="J12">
-        <v>52.31999969482422</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2880,13 +2751,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.678589848968072</v>
+        <v>1.67440054184053</v>
       </c>
       <c r="D13">
-        <v>1.88439154624939</v>
+        <v>1.88134229183197</v>
       </c>
       <c r="E13">
-        <v>56.78999710083008</v>
+        <v>57.95</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2895,10 +2766,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>1.102327905273438</v>
+        <v>1.066453457641602</v>
       </c>
       <c r="J13">
-        <v>61.68000030517578</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2909,13 +2780,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.657794749833704</v>
+        <v>1.646662357376843</v>
       </c>
       <c r="D14">
-        <v>1.848414222399394</v>
+        <v>1.900715827941895</v>
       </c>
       <c r="E14">
-        <v>56.54000091552734</v>
+        <v>59.51000000000001</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2924,10 +2795,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>1.112943252563477</v>
+        <v>1.072228308105469</v>
       </c>
       <c r="J14">
-        <v>55.03999710083008</v>
+        <v>56.74</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2938,13 +2809,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.620969325546327</v>
+        <v>1.614432249611955</v>
       </c>
       <c r="D15">
-        <v>1.858957012494405</v>
+        <v>1.897937536239624</v>
       </c>
       <c r="E15">
-        <v>56.86999893188477</v>
+        <v>58.01</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2953,10 +2824,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>1.119708676147461</v>
+        <v>1.065019494628906</v>
       </c>
       <c r="J15">
-        <v>61.27999877929688</v>
+        <v>64.36</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2967,13 +2838,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.592516725625449</v>
+        <v>1.592028611074618</v>
       </c>
       <c r="D16">
-        <v>1.837116241455078</v>
+        <v>1.929874777793884</v>
       </c>
       <c r="E16">
-        <v>55.0099983215332</v>
+        <v>57.81</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2982,10 +2853,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>1.106387710571289</v>
+        <v>1.073495703125</v>
       </c>
       <c r="J16">
-        <v>51.87999725341797</v>
+        <v>54.22</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2996,13 +2867,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.584924232668993</v>
+        <v>1.568767103722425</v>
       </c>
       <c r="D17">
-        <v>1.875998973846436</v>
+        <v>1.915683507919312</v>
       </c>
       <c r="E17">
-        <v>55.19999694824219</v>
+        <v>58.56</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3011,10 +2882,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>1.147442562866211</v>
+        <v>1.092481567382813</v>
       </c>
       <c r="J17">
-        <v>57.8599967956543</v>
+        <v>63.78</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3025,13 +2896,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.556158825633972</v>
+        <v>1.556426508639886</v>
       </c>
       <c r="D18">
-        <v>1.8716059923172</v>
+        <v>1.925299644470215</v>
       </c>
       <c r="E18">
-        <v>57.86000061035156</v>
+        <v>57.83</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -3040,10 +2911,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>1.053268399047852</v>
+        <v>1.132878213500977</v>
       </c>
       <c r="J18">
-        <v>56.39999771118164</v>
+        <v>49.06</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3054,13 +2925,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.537756917922477</v>
+        <v>1.60859422470496</v>
       </c>
       <c r="D19">
-        <v>1.855562011400859</v>
+        <v>1.89404284954071</v>
       </c>
       <c r="E19">
-        <v>56.61999893188477</v>
+        <v>59.3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3069,10 +2940,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>1.108447058105469</v>
+        <v>1.037791958618164</v>
       </c>
       <c r="J19">
-        <v>60.95999908447266</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3083,13 +2954,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.519511312004027</v>
+        <v>1.594221245951769</v>
       </c>
       <c r="D20">
-        <v>1.895136753718058</v>
+        <v>1.864807844161987</v>
       </c>
       <c r="E20">
-        <v>54.54000091552734</v>
+        <v>58.81</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3098,10 +2969,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>1.077272952270508</v>
+        <v>1.111341760253906</v>
       </c>
       <c r="J20">
-        <v>53.89999771118164</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3112,13 +2983,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.511681899791811</v>
+        <v>1.586445329635124</v>
       </c>
       <c r="D21">
-        <v>1.873774846394857</v>
+        <v>1.882120847702026</v>
       </c>
       <c r="E21">
-        <v>55.55999755859375</v>
+        <v>59.31</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3127,10 +2998,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>1.105479846191406</v>
+        <v>1.092167211914062</v>
       </c>
       <c r="J21">
-        <v>58.7599983215332</v>
+        <v>60.28</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3141,13 +3012,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.539797793558943</v>
+        <v>1.579494369708426</v>
       </c>
       <c r="D22">
-        <v>1.833040754000346</v>
+        <v>1.880550742149353</v>
       </c>
       <c r="E22">
-        <v>57.66999816894531</v>
+        <v>59.23</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3156,10 +3027,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>1.077042373657227</v>
+        <v>1.040762023925781</v>
       </c>
       <c r="J22">
-        <v>56.43999862670898</v>
+        <v>58.86</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3170,13 +3041,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.529382590355912</v>
+        <v>1.571913573800064</v>
       </c>
       <c r="D23">
-        <v>1.84637721379598</v>
+        <v>1.883224248886108</v>
       </c>
       <c r="E23">
-        <v>57.21999740600586</v>
+        <v>59.58</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3185,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>1.112939175415039</v>
+        <v>1.083397338867188</v>
       </c>
       <c r="J23">
-        <v>57.51999664306641</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3199,13 +3070,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.523541982580976</v>
+        <v>1.56499459782267</v>
       </c>
       <c r="D24">
-        <v>1.877280553181966</v>
+        <v>1.902752876281738</v>
       </c>
       <c r="E24">
-        <v>57.40999984741211</v>
+        <v>58.4</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -3214,10 +3085,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>1.096544787597656</v>
+        <v>1.048492828369141</v>
       </c>
       <c r="J24">
-        <v>56.05999755859375</v>
+        <v>53.78</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3228,13 +3099,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.51863833656156</v>
+        <v>1.558317305595894</v>
       </c>
       <c r="D25">
-        <v>1.856757362683614</v>
+        <v>1.888993144035339</v>
       </c>
       <c r="E25">
-        <v>56.78999710083008</v>
+        <v>58.98</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3243,10 +3114,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>1.098556481933594</v>
+        <v>1.091505743408203</v>
       </c>
       <c r="J25">
-        <v>58.91999816894531</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3257,13 +3128,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.512780902831535</v>
+        <v>1.579930960647459</v>
       </c>
       <c r="D26">
-        <v>1.859876871109009</v>
+        <v>1.880371570587158</v>
       </c>
       <c r="E26">
-        <v>56.79000091552734</v>
+        <v>59.06</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3272,10 +3143,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>1.092638479614258</v>
+        <v>1.017524108886719</v>
       </c>
       <c r="J26">
-        <v>54.15999984741211</v>
+        <v>61.92</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3286,13 +3157,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.507728709437983</v>
+        <v>1.577027837435405</v>
       </c>
       <c r="D27">
-        <v>1.868860324223836</v>
+        <v>1.907922148704529</v>
       </c>
       <c r="E27">
-        <v>56.83999633789062</v>
+        <v>59.16</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3301,10 +3172,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>1.102748165893555</v>
+        <v>1.07411491394043</v>
       </c>
       <c r="J27">
-        <v>58.68000030517578</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3315,13 +3186,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.524447016599702</v>
+        <v>1.574926526565862</v>
       </c>
       <c r="D28">
-        <v>1.840903798739115</v>
+        <v>1.874952793121338</v>
       </c>
       <c r="E28">
-        <v>57.2599983215332</v>
+        <v>58.96</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3330,10 +3201,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>1.087894161987305</v>
+        <v>1.062455157470703</v>
       </c>
       <c r="J28">
-        <v>55.05999755859375</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3344,13 +3215,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.522175380854103</v>
+        <v>1.573030004656412</v>
       </c>
       <c r="D29">
-        <v>1.858820160230001</v>
+        <v>1.869883418083191</v>
       </c>
       <c r="E29">
-        <v>57.36000061035156</v>
+        <v>59.03</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3359,10 +3230,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>1.106837246704102</v>
+        <v>1.026983489990234</v>
       </c>
       <c r="J29">
-        <v>58.51999664306641</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3373,13 +3244,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.520370476614169</v>
+        <v>1.571649655093992</v>
       </c>
       <c r="D30">
-        <v>1.857587456703186</v>
+        <v>1.868430018424988</v>
       </c>
       <c r="E30">
-        <v>57.32999801635742</v>
+        <v>58.89</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3388,10 +3259,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>1.115542636108398</v>
+        <v>1.11548020324707</v>
       </c>
       <c r="J30">
-        <v>51.5</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3402,13 +3273,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.519050327742972</v>
+        <v>1.578817189224367</v>
       </c>
       <c r="D31">
-        <v>1.86060619354248</v>
+        <v>1.871305465698242</v>
       </c>
       <c r="E31">
-        <v>57</v>
+        <v>59.31</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3417,10 +3288,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.156693524169922</v>
+        <v>1.095874938964844</v>
       </c>
       <c r="J31">
-        <v>51.7599983215332</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3431,13 +3302,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.517411380279355</v>
+        <v>1.576965340753881</v>
       </c>
       <c r="D32">
-        <v>1.852349956830343</v>
+        <v>1.875530242919922</v>
       </c>
       <c r="E32">
-        <v>57.16999816894531</v>
+        <v>59.42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3446,10 +3317,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>1.075760931396484</v>
+        <v>1.052073361206055</v>
       </c>
       <c r="J32">
-        <v>58.63999938964844</v>
+        <v>58.72</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3460,13 +3331,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.524215033383873</v>
+        <v>1.576567444374891</v>
       </c>
       <c r="D33">
-        <v>1.837610562642415</v>
+        <v>1.878220915794373</v>
       </c>
       <c r="E33">
-        <v>57.48999786376953</v>
+        <v>59.34</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3475,10 +3346,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>1.117704025268555</v>
+        <v>1.041590856933594</v>
       </c>
       <c r="J33">
-        <v>56.13999938964844</v>
+        <v>61.62</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3489,13 +3360,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1.522702720107102</v>
+        <v>1.576140063564952</v>
       </c>
       <c r="D34">
-        <v>1.851749261220296</v>
+        <v>1.878825545310974</v>
       </c>
       <c r="E34">
-        <v>57.64999771118164</v>
+        <v>59.25</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3504,10 +3375,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>1.079803820800781</v>
+        <v>1.111946264648437</v>
       </c>
       <c r="J34">
-        <v>59.57999801635742</v>
+        <v>54.04</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3518,13 +3389,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.52201579644428</v>
+        <v>1.575423029380116</v>
       </c>
       <c r="D35">
-        <v>1.847873290379842</v>
+        <v>1.872296690940857</v>
       </c>
       <c r="E35">
-        <v>57.48999786376953</v>
+        <v>59.27</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3533,10 +3404,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>1.120754055786133</v>
+        <v>1.044093475341797</v>
       </c>
       <c r="J35">
-        <v>52.97999954223633</v>
+        <v>64.38</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3547,13 +3418,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.52181297007615</v>
+        <v>1.579682009976085</v>
       </c>
       <c r="D36">
-        <v>1.844119151433309</v>
+        <v>1.886400699615479</v>
       </c>
       <c r="E36">
-        <v>57.51999664306641</v>
+        <v>59.23999999999999</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3562,10 +3433,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>1.087799746704102</v>
+        <v>1.055348327636719</v>
       </c>
       <c r="J36">
-        <v>60.2599983215332</v>
+        <v>54.22</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3576,13 +3447,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.520802934964498</v>
+        <v>1.578281953082821</v>
       </c>
       <c r="D37">
-        <v>1.838966568311055</v>
+        <v>1.864513278007507</v>
       </c>
       <c r="E37">
-        <v>57.68000030517578</v>
+        <v>59.12</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3591,10 +3462,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>1.064817489624023</v>
+        <v>1.04844970703125</v>
       </c>
       <c r="J37">
-        <v>60.57999801635742</v>
+        <v>62.92</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3605,13 +3476,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.524666682491458</v>
+        <v>1.577707230560179</v>
       </c>
       <c r="D38">
-        <v>1.840752879778544</v>
+        <v>1.885815024375916</v>
       </c>
       <c r="E38">
-        <v>57.65000152587891</v>
+        <v>59.15</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3620,10 +3491,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>1.177414877319336</v>
+        <v>1.068465386962891</v>
       </c>
       <c r="J38">
-        <v>48.5</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3634,13 +3505,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.523713693386171</v>
+        <v>1.577349966134482</v>
       </c>
       <c r="D39">
-        <v>1.855921864509583</v>
+        <v>1.872184753417969</v>
       </c>
       <c r="E39">
-        <v>57.56999969482422</v>
+        <v>59.23</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3649,10 +3520,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>1.115205322265625</v>
+        <v>1.052750378417969</v>
       </c>
       <c r="J39">
-        <v>55.31999969482422</v>
+        <v>62.62</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3663,13 +3534,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.52332514669837</v>
+        <v>1.577029831041165</v>
       </c>
       <c r="D40">
-        <v>1.869987885157267</v>
+        <v>1.869543790817261</v>
       </c>
       <c r="E40">
-        <v>57.6099967956543</v>
+        <v>59.16</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3678,10 +3549,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>1.138551266479492</v>
+        <v>1.055077111816406</v>
       </c>
       <c r="J40">
-        <v>55.79999923706055</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3692,13 +3563,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.522866609619885</v>
+        <v>1.577236488582642</v>
       </c>
       <c r="D41">
-        <v>1.845051725705465</v>
+        <v>1.876767516136169</v>
       </c>
       <c r="E41">
-        <v>57.66999816894531</v>
+        <v>59.23999999999999</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3707,10 +3578,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>1.078431701660156</v>
+        <v>1.035780221557617</v>
       </c>
       <c r="J41">
-        <v>58.71999740600586</v>
+        <v>63.72</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3721,13 +3592,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1.522485206766826</v>
+        <v>1.576616153484438</v>
       </c>
       <c r="D42">
-        <v>1.82761812210083</v>
+        <v>1.875937819480896</v>
       </c>
       <c r="E42">
-        <v>57.65999603271484</v>
+        <v>59.18</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3736,28 +3607,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>1.087637997436523</v>
+        <v>1.065782653808594</v>
       </c>
       <c r="J42">
-        <v>56.61999893188477</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>1.522479240487262</v>
-      </c>
-      <c r="D43">
-        <v>1.838500340779622</v>
-      </c>
-      <c r="E43">
-        <v>57.57999801635742</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -3765,28 +3621,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>1.094750524902344</v>
+        <v>1.0659376953125</v>
       </c>
       <c r="J43">
-        <v>57.23999786376953</v>
+        <v>60.96</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>1.522255422623177</v>
-      </c>
-      <c r="D44">
-        <v>1.847126722335815</v>
-      </c>
-      <c r="E44">
-        <v>57.58999633789062</v>
-      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -3794,28 +3635,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>1.090297695922852</v>
+        <v>1.039909692382812</v>
       </c>
       <c r="J44">
-        <v>57.19999694824219</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>1.522033202938917</v>
-      </c>
-      <c r="D45">
-        <v>1.849686503410339</v>
-      </c>
-      <c r="E45">
-        <v>57.66999816894531</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -3823,28 +3649,13 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>1.080304904174805</v>
+        <v>1.027703497314453</v>
       </c>
       <c r="J45">
-        <v>57.97999954223633</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>1.522674909452113</v>
-      </c>
-      <c r="D46">
-        <v>1.839689215024312</v>
-      </c>
-      <c r="E46">
-        <v>57.73999786376953</v>
-      </c>
       <c r="G46">
         <v>1</v>
       </c>
@@ -3852,28 +3663,13 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>1.103729168701172</v>
+        <v>1.095606774902344</v>
       </c>
       <c r="J46">
-        <v>56.84000015258789</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>1.521728964355903</v>
-      </c>
-      <c r="D47">
-        <v>1.847148378690084</v>
-      </c>
-      <c r="E47">
-        <v>57.61999893188477</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -3881,10 +3677,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>1.061358682250977</v>
+        <v>1.056624438476562</v>
       </c>
       <c r="J47">
-        <v>60.01999664306641</v>
+        <v>61.76</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3895,10 +3691,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>1.124601858520508</v>
+        <v>1.061438864135742</v>
       </c>
       <c r="J48">
-        <v>53.55999755859375</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3909,10 +3705,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>1.073709884643555</v>
+        <v>1.037741333007812</v>
       </c>
       <c r="J49">
-        <v>58.05999755859375</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -3923,10 +3719,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>1.113367172241211</v>
+        <v>1.064611334228516</v>
       </c>
       <c r="J50">
-        <v>55.52000045776367</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3937,10 +3733,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>1.071630322265625</v>
+        <v>1.042568460083008</v>
       </c>
       <c r="J51">
-        <v>58.05999755859375</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -3951,10 +3747,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>1.122579696655273</v>
+        <v>1.059956564331055</v>
       </c>
       <c r="J52">
-        <v>55.61999893188477</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3965,10 +3761,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>1.078533554077148</v>
+        <v>1.040671896362305</v>
       </c>
       <c r="J53">
-        <v>58.21999740600586</v>
+        <v>63.06</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -3979,10 +3775,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>1.099397714233398</v>
+        <v>1.067723803710938</v>
       </c>
       <c r="J54">
-        <v>56.29999923706055</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3993,10 +3789,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>1.068141903686523</v>
+        <v>1.047154321289063</v>
       </c>
       <c r="J55">
-        <v>58.93999862670898</v>
+        <v>62.84</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -4007,10 +3803,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>1.10606692199707</v>
+        <v>1.058980874633789</v>
       </c>
       <c r="J56">
-        <v>55.77999877929688</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -4021,10 +3817,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>1.072084506225586</v>
+        <v>1.042316510009766</v>
       </c>
       <c r="J57">
-        <v>58.77999877929688</v>
+        <v>62.94</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -4035,10 +3831,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>1.10458776550293</v>
+        <v>1.06375087890625</v>
       </c>
       <c r="J58">
-        <v>55.87999725341797</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -4049,10 +3845,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>1.068218148803711</v>
+        <v>1.044942218017578</v>
       </c>
       <c r="J59">
-        <v>59.01999664306641</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -4063,10 +3859,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>1.109456036376953</v>
+        <v>1.057212084960937</v>
       </c>
       <c r="J60">
-        <v>54.97999954223633</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -4077,10 +3873,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>1.069915063476562</v>
+        <v>1.04262682800293</v>
       </c>
       <c r="J61">
-        <v>58.18000030517578</v>
+        <v>63.38</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -4091,10 +3887,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>1.109976501464844</v>
+        <v>1.059298165893555</v>
       </c>
       <c r="J62">
-        <v>56.15999984741211</v>
+        <v>55.46</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -4105,10 +3901,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>1.070987487792969</v>
+        <v>1.039879919433594</v>
       </c>
       <c r="J63">
-        <v>59.05999755859375</v>
+        <v>63.48</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -4119,10 +3915,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>1.100026354980469</v>
+        <v>1.060139215087891</v>
       </c>
       <c r="J64">
-        <v>55.91999816894531</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -4133,10 +3929,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>1.068911962890625</v>
+        <v>1.042946209716797</v>
       </c>
       <c r="J65">
-        <v>59.03999710083008</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -4147,10 +3943,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>1.10114397277832</v>
+        <v>1.059215646362305</v>
       </c>
       <c r="J66">
-        <v>56.2599983215332</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -4161,10 +3957,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>1.072554739379883</v>
+        <v>1.039479470825195</v>
       </c>
       <c r="J67">
-        <v>58.53999710083008</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -4175,10 +3971,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>1.099349914550781</v>
+        <v>1.062335711669922</v>
       </c>
       <c r="J68">
-        <v>56.43999862670898</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -4189,10 +3985,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>1.071231158447266</v>
+        <v>1.04589494934082</v>
       </c>
       <c r="J69">
-        <v>58.65999984741211</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -4203,10 +3999,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>1.099627972412109</v>
+        <v>1.058938729858399</v>
       </c>
       <c r="J70">
-        <v>56.37999725341797</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -4217,10 +4013,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>1.069340689086914</v>
+        <v>1.044678601074219</v>
       </c>
       <c r="J71">
-        <v>58.91999816894531</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -4231,10 +4027,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>1.102810845947266</v>
+        <v>1.058538442993164</v>
       </c>
       <c r="J72">
-        <v>56.43999862670898</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -4245,10 +4041,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>1.074475631713867</v>
+        <v>1.043782415771484</v>
       </c>
       <c r="J73">
-        <v>59</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -4259,10 +4055,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>1.093654891967774</v>
+        <v>1.058864895629883</v>
       </c>
       <c r="J74">
-        <v>56.29999923706055</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -4273,10 +4069,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>1.073159167480469</v>
+        <v>1.044343942260742</v>
       </c>
       <c r="J75">
-        <v>58.91999816894531</v>
+        <v>63.14</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -4287,10 +4083,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>1.095791290283203</v>
+        <v>1.058436703491211</v>
       </c>
       <c r="J76">
-        <v>56.21999740600586</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -4301,10 +4097,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>1.073138122558594</v>
+        <v>1.043370043945312</v>
       </c>
       <c r="J77">
-        <v>58.8599967956543</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -4315,10 +4111,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>1.096432287597656</v>
+        <v>1.058746206665039</v>
       </c>
       <c r="J78">
-        <v>56.3599967956543</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -4329,10 +4125,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>1.072427313232422</v>
+        <v>1.04251321105957</v>
       </c>
       <c r="J79">
-        <v>58.91999816894531</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -4343,10 +4139,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>1.097320999145508</v>
+        <v>1.058813668823242</v>
       </c>
       <c r="J80">
-        <v>56.41999816894531</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4357,10 +4153,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>1.072455090332031</v>
+        <v>1.042456948852539</v>
       </c>
       <c r="J81">
-        <v>58.91999816894531</v>
+        <v>63.32</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4371,150 +4167,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>1.097952905273438</v>
+        <v>1.059494183349609</v>
       </c>
       <c r="J82">
-        <v>56.39999771118164</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>1.072445697021484</v>
-      </c>
-      <c r="J83">
-        <v>58.8599967956543</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>1.098642431640625</v>
-      </c>
-      <c r="J84">
-        <v>56.29999923706055</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>1.071761386108398</v>
-      </c>
-      <c r="J85">
-        <v>58.73999786376953</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>1.098941360473633</v>
-      </c>
-      <c r="J86">
-        <v>56.43999862670898</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>1.071287811279297</v>
-      </c>
-      <c r="J87">
-        <v>58.84000015258789</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>1.099517935180664</v>
-      </c>
-      <c r="J88">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="89" spans="7:10">
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>44</v>
-      </c>
-      <c r="I89">
-        <v>1.071545080566406</v>
-      </c>
-      <c r="J89">
-        <v>58.81999969482422</v>
-      </c>
-    </row>
-    <row r="90" spans="7:10">
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>44</v>
-      </c>
-      <c r="I90">
-        <v>1.098665069580078</v>
-      </c>
-      <c r="J90">
-        <v>56.65999984741211</v>
-      </c>
-    </row>
-    <row r="91" spans="7:10">
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>45</v>
-      </c>
-      <c r="I91">
-        <v>1.071721536254883</v>
-      </c>
-      <c r="J91">
-        <v>58.61999893188477</v>
-      </c>
-    </row>
-    <row r="92" spans="7:10">
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>45</v>
-      </c>
-      <c r="I92">
-        <v>1.099204061889648</v>
-      </c>
-      <c r="J92">
-        <v>56.61999893188477</v>
+        <v>55.04</v>
       </c>
     </row>
   </sheetData>
